--- a/src/tests/Fixtures/Template_Mahasiswa.xlsx
+++ b/src/tests/Fixtures/Template_Mahasiswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gibra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pribadi\Project\Laravel\Sirepo-JTI-Fullstack\src\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43780DDB-5138-44ED-81E6-B5ACAD6AAE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129CCB2F-EBE6-4822-B9EF-FFB8B20D581C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="6825" windowWidth="21600" windowHeight="11295" xr2:uid="{6330A468-C46E-4837-9FDC-8153514FB9C1}"/>
+    <workbookView xWindow="3240" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{6330A468-C46E-4837-9FDC-8153514FB9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>Username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -54,47 +51,14 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>userpass</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>test_import_4</t>
-  </si>
-  <si>
-    <t>test_import_5</t>
-  </si>
-  <si>
-    <t>test_import_6</t>
-  </si>
-  <si>
-    <t>test_import_four</t>
-  </si>
-  <si>
-    <t>test_import_five</t>
-  </si>
-  <si>
-    <t>test_import_six</t>
-  </si>
-  <si>
-    <t>four@gmail.com</t>
-  </si>
-  <si>
-    <t>five@gmail.com</t>
-  </si>
-  <si>
-    <t>six@gmail.com</t>
+    <t>Nim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,14 +78,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,18 +96,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2181D031-4C76-4D57-85CD-DCE437960AD5}"/>
   </cellStyles>
@@ -465,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFA401F-BCA9-495D-81F0-12E475EA1559}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,91 +436,25 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>2023</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0B3CFAE7-D4F6-4AB8-B37C-1158FA4CFE09}"/>
-    <hyperlink ref="C3:C4" r:id="rId2" display="one@gmail.com" xr:uid="{67874C02-025B-4965-AFDB-341C37FCE998}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{79FE83C8-EE22-4F10-968F-CC642817EE44}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{C47308E5-AD5C-45B8-A3B6-B79FC3F31B8D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>